--- a/biology/Médecine/Os_trapèze/Os_trapèze.xlsx
+++ b/biology/Médecine/Os_trapèze/Os_trapèze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Os_trap%C3%A8ze</t>
+          <t>Os_trapèze</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le trapèze (ou os trapèze) est un os du poignet. C'est l'os le plus latéral de la deuxième rangée des os du carpe dont le rôle fonctionnel (en duo avec l'os scaphoïde) est fondamental dans la biomécanique du pouce.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Os_trap%C3%A8ze</t>
+          <t>Os_trapèze</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le trapèze présente :
 une face supérieure orientée en haut et médialement articulaire avec le scaphoïde,
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Os_trap%C3%A8ze</t>
+          <t>Os_trapèze</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le trapèze est sensible à l'arthrose au niveau de l'articulation avec l'os métacarpien du pouce, en raison d'une surutilisation[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le trapèze est sensible à l'arthrose au niveau de l'articulation avec l'os métacarpien du pouce, en raison d'une surutilisation.
 </t>
         </is>
       </c>
